--- a/examples/spacex_example/output.xlsx
+++ b/examples/spacex_example/output.xlsx
@@ -10,11 +10,11 @@
   <sheets>
     <sheet name="About" r:id="rId2" sheetId="1" state="visible"/>
     <sheet name="Rockets" r:id="rId3" sheetId="2" state="visible"/>
-    <sheet name="AOPChartSheet_chart1" r:id="rId9" sheetId="7" state="hidden"/>
     <sheet name="Dragons" r:id="rId4" sheetId="3" state="visible"/>
     <sheet name="Launch pads" r:id="rId5" sheetId="4" state="visible"/>
     <sheet name="Landing pads" r:id="rId6" sheetId="5" state="visible"/>
     <sheet name="Ships" r:id="rId7" sheetId="6" state="visible"/>
+    <sheet name="AOPChartSheet_chart1" r:id="rId9" sheetId="7" state="hidden"/>
   </sheets>
   <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
@@ -1056,7 +1056,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:layout/>
       <c:spPr>
@@ -1644,48 +1644,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7620000" cy="1390650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr descr="undefined" id="2" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7620000" cy="1390650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7620000" cy="2857500"/>
+    <xdr:ext cx="6191250" cy="2857500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
@@ -1784,8 +1746,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="A1"/>
-    <hyperlink r:id="rId3" ref="A9"/>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A9"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -1794,7 +1756,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/examples/spacex_example/output.xlsx
+++ b/examples/spacex_example/output.xlsx
@@ -1647,7 +1647,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6191250" cy="2857500"/>
+    <xdr:ext cx="7620000" cy="2857500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
@@ -2380,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>20</v>
